--- a/president_bios.xlsx
+++ b/president_bios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbcme\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbcme\OneDrive\Documentos\GitHub\data-vis-nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAC2FCB-181E-4C3A-97D6-8F0C12F566CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD502694-7B79-4E8D-A0CD-C93EA00FAC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
+    <workbookView xWindow="8595" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81268924</v>
+        <v>74216154</v>
       </c>
       <c r="G12" s="1">
-        <v>51.3</v>
+        <v>46.9</v>
       </c>
       <c r="H12" s="1">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="I12" s="1">
         <v>25</v>
@@ -1091,13 +1091,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>74216154</v>
+        <v>81268924</v>
       </c>
       <c r="G13" s="1">
-        <v>46.9</v>
+        <v>51.3</v>
       </c>
       <c r="H13" s="1">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="I13" s="1">
         <v>25</v>

--- a/president_bios.xlsx
+++ b/president_bios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbcme\OneDrive\Documentos\GitHub\data-vis-nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD502694-7B79-4E8D-A0CD-C93EA00FAC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA6FE7-B595-4D5B-B20E-5E7B7E023A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
+    <workbookView xWindow="15705" yWindow="-21630" windowWidth="17100" windowHeight="9945" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -121,19 +121,49 @@
     <t>Delaware</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>net_worth_mil</t>
-  </si>
-  <si>
-    <t>weight</t>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>Gerald Ford</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Walter Mondale</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Michael Dukakis</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>George H. W. Bush</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Bob Dole</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -487,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394C1CFA-4E13-40EF-8EED-E27731F47F11}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -505,12 +535,10 @@
     <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.796875" style="1"/>
-    <col min="15" max="15" width="12.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,125 +569,80 @@
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>50456002</v>
+        <v>39148634</v>
       </c>
       <c r="G2" s="1">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>54</v>
-      </c>
-      <c r="L2" s="1">
-        <v>182</v>
-      </c>
-      <c r="M2" s="1">
-        <v>84</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>50999897</v>
+        <v>40831881</v>
       </c>
       <c r="G3" s="1">
-        <v>48.4</v>
+        <v>50.1</v>
       </c>
       <c r="H3" s="1">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="I3" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>52</v>
-      </c>
-      <c r="L3" s="1">
-        <v>185</v>
-      </c>
-      <c r="M3" s="1">
-        <v>75</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -668,45 +651,30 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>62040610</v>
+        <v>43903230</v>
       </c>
       <c r="G4" s="1">
         <v>50.7</v>
       </c>
       <c r="H4" s="1">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="I4" s="1">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" s="1">
-        <v>56.7</v>
-      </c>
-      <c r="K4" s="1">
-        <v>58</v>
-      </c>
-      <c r="L4" s="1">
-        <v>182</v>
-      </c>
-      <c r="M4" s="1">
-        <v>84</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -715,327 +683,222 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>59028444</v>
+        <v>35480115</v>
       </c>
       <c r="G5" s="1">
-        <v>48.3</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>56.7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>60</v>
-      </c>
-      <c r="L5" s="1">
-        <v>193</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>69498516</v>
+        <v>54455472</v>
       </c>
       <c r="G6" s="1">
-        <v>52.9</v>
+        <v>58.8</v>
       </c>
       <c r="H6" s="1">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="I6" s="1">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1">
-        <v>58.2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>72</v>
-      </c>
-      <c r="L6" s="1">
-        <v>175</v>
-      </c>
-      <c r="M6" s="1">
-        <v>79</v>
-      </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
-      <c r="O6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37577352</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>59948323</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45.7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>173</v>
-      </c>
-      <c r="I7" s="1">
-        <v>22</v>
-      </c>
       <c r="J7" s="1">
-        <v>58.2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1">
-        <v>187</v>
-      </c>
-      <c r="M7" s="1">
-        <v>82</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>65915795</v>
+        <v>48886597</v>
       </c>
       <c r="G8" s="1">
-        <v>51.1</v>
+        <v>53.4</v>
       </c>
       <c r="H8" s="1">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="I8" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1">
-        <v>54.9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>65</v>
-      </c>
-      <c r="L8" s="1">
-        <v>187</v>
-      </c>
-      <c r="M8" s="1">
-        <v>74</v>
-      </c>
-      <c r="N8" s="1">
-        <v>5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>60933504</v>
+        <v>41809074</v>
       </c>
       <c r="G9" s="1">
-        <v>47.2</v>
+        <v>45.6</v>
       </c>
       <c r="H9" s="1">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>54.9</v>
-      </c>
-      <c r="K9" s="1">
-        <v>51</v>
-      </c>
-      <c r="L9" s="1">
-        <v>187</v>
-      </c>
-      <c r="M9" s="1">
-        <v>82</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>62984828</v>
+        <v>39104550</v>
       </c>
       <c r="G10" s="1">
-        <v>46.1</v>
+        <v>37.4</v>
       </c>
       <c r="H10" s="1">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1">
-        <v>55.7</v>
-      </c>
-      <c r="K10" s="1">
-        <v>70</v>
-      </c>
-      <c r="L10" s="1">
-        <v>190</v>
-      </c>
-      <c r="M10" s="1">
-        <v>108</v>
-      </c>
-      <c r="N10" s="1">
-        <v>5</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>65853514</v>
+        <v>44909889</v>
       </c>
       <c r="G11" s="1">
-        <v>48.2</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="I11" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1">
-        <v>55.7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>69</v>
-      </c>
-      <c r="L11" s="1">
-        <v>168</v>
-      </c>
-      <c r="M11" s="1">
-        <v>60</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -1044,45 +907,30 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>74216154</v>
+        <v>39197469</v>
       </c>
       <c r="G12" s="1">
-        <v>46.9</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1">
-        <v>66.2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>74</v>
-      </c>
-      <c r="L12" s="1">
-        <v>190</v>
-      </c>
-      <c r="M12" s="1">
-        <v>108</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1091,34 +939,403 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>47401185</v>
+      </c>
+      <c r="G13" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>379</v>
+      </c>
+      <c r="I13" s="1">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50456002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>271</v>
+      </c>
+      <c r="I14" s="1">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50999897</v>
+      </c>
+      <c r="G15" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>266</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>62040610</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>286</v>
+      </c>
+      <c r="I16" s="1">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>59028444</v>
+      </c>
+      <c r="G17" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>251</v>
+      </c>
+      <c r="I17" s="1">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>69498516</v>
+      </c>
+      <c r="G18" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="H18" s="1">
+        <v>365</v>
+      </c>
+      <c r="I18" s="1">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59948323</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>173</v>
+      </c>
+      <c r="I19" s="1">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>65915795</v>
+      </c>
+      <c r="G20" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>332</v>
+      </c>
+      <c r="I20" s="1">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>60933504</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>206</v>
+      </c>
+      <c r="I21" s="1">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>62984828</v>
+      </c>
+      <c r="G22" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>304</v>
+      </c>
+      <c r="I22" s="1">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>65853514</v>
+      </c>
+      <c r="G23" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>227</v>
+      </c>
+      <c r="I23" s="1">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>74216154</v>
+      </c>
+      <c r="G24" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="H24" s="1">
+        <v>232</v>
+      </c>
+      <c r="I24" s="1">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>81268924</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G25" s="1">
         <v>51.3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H25" s="1">
         <v>306</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I25" s="1">
         <v>25</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J25" s="1">
         <v>66.2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1">
-        <v>182</v>
-      </c>
-      <c r="M13" s="1">
-        <v>75</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/president_bios.xlsx
+++ b/president_bios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbcme\OneDrive\Documentos\GitHub\data-vis-nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA6FE7-B595-4D5B-B20E-5E7B7E023A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70E7A0-6C6A-45FA-B796-843DFB9508FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="-21630" windowWidth="17100" windowHeight="9945" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
+    <workbookView xWindow="8595" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{D2D1368C-2394-42C4-B1D9-93BBF7FE5F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>69498516</v>
+        <v>59948323</v>
       </c>
       <c r="G18" s="1">
-        <v>52.9</v>
+        <v>45.7</v>
       </c>
       <c r="H18" s="1">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="I18" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1">
         <v>58.2</v>
@@ -1131,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>59948323</v>
+        <v>69498516</v>
       </c>
       <c r="G19" s="1">
-        <v>45.7</v>
+        <v>52.9</v>
       </c>
       <c r="H19" s="1">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="I19" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1">
         <v>58.2</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65915795</v>
+        <v>60933504</v>
       </c>
       <c r="G20" s="1">
-        <v>51.1</v>
+        <v>47.2</v>
       </c>
       <c r="H20" s="1">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="I20" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1">
         <v>54.9</v>
@@ -1195,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>60933504</v>
+        <v>65915795</v>
       </c>
       <c r="G21" s="1">
-        <v>47.2</v>
+        <v>51.1</v>
       </c>
       <c r="H21" s="1">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="I21" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1">
         <v>54.9</v>
